--- a/Water/Automatic tap/automatic_tap.xlsx
+++ b/Water/Automatic tap/automatic_tap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Components</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Echo to D8(digital pin on Arduino UNO)</t>
   </si>
   <si>
-    <t>To check the working of the sensor install the library &lt;NewPing&gt; and upload the code attached.</t>
-  </si>
-  <si>
     <t>Connect relay to pump</t>
   </si>
   <si>
@@ -177,13 +174,19 @@
     <t>Attach ultrasonic sensor to tap</t>
   </si>
   <si>
-    <t>Upload the final code</t>
-  </si>
-  <si>
     <t>Data pin to D10(digital pin on Arduino UNO)</t>
   </si>
   <si>
-    <t>Final</t>
+    <t>To check the working of the sensor install the library &lt;NewPing&gt; and upload code001.</t>
+  </si>
+  <si>
+    <t>Upload code002</t>
+  </si>
+  <si>
+    <t>Code002</t>
+  </si>
+  <si>
+    <t>Code001</t>
   </si>
 </sst>
 </file>
@@ -770,7 +773,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -855,12 +860,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -896,7 +901,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -904,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="7"/>
     </row>
@@ -913,10 +918,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -928,13 +933,13 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -942,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>55</v>
